--- a/results/CV/2024/1_category/report_df.xlsx
+++ b/results/CV/2024/1_category/report_df.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan_R\OneDrive\Desktop\REPO\TS_ANALYSIS\results\CV\2024\1_category\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0280B4F5-6437-45D0-93F9-0A46B45808C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -55,11 +49,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,11 +62,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -111,38 +105,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +161,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -214,7 +195,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,10 +229,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,22 +404,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -463,72 +434,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>45299.875</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>132712</v>
       </c>
-      <c r="E2" s="3">
-        <v>45301.070138888892</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>45392.03611111111</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>0.10459</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>132712</v>
       </c>
-      <c r="C3" s="3">
-        <v>45301.070138888892</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="2">
+        <v>45392.03611111111</v>
+      </c>
+      <c r="D3">
         <v>393251</v>
       </c>
-      <c r="E3" s="3">
-        <v>45303.701388888891</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2">
+        <v>45572.96597222222</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2">
-        <v>5.919E-2</v>
+      <c r="G3">
+        <v>0.05919</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>393251</v>
       </c>
-      <c r="C4" s="3">
-        <v>45303.701388888891</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
+        <v>45572.96597222222</v>
+      </c>
+      <c r="D4">
         <v>513461</v>
       </c>
-      <c r="E4" s="3">
-        <v>45309.350694444453</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="2">
+        <v>45656.44513888889</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>0.11803</v>
       </c>
     </row>
